--- a/data/001201.SZ-20210824.xlsx
+++ b/data/001201.SZ-20210824.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,7 +492,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -534,7 +534,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -576,7 +576,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3848,6 +3848,48 @@
       </c>
       <c r="L81" t="n">
         <v>25924.783</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001201.SZ</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>20210824</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>35.73</v>
+      </c>
+      <c r="E82" t="n">
+        <v>35.96</v>
+      </c>
+      <c r="F82" t="n">
+        <v>35.56</v>
+      </c>
+      <c r="G82" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="H82" t="n">
+        <v>35.63</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.1965</v>
+      </c>
+      <c r="K82" t="n">
+        <v>6240.05</v>
+      </c>
+      <c r="L82" t="n">
+        <v>22318.65</v>
       </c>
     </row>
   </sheetData>
